--- a/Documentos/Fichas MSI/Gerente/13 - Listar Pedidos.xlsx
+++ b/Documentos/Fichas MSI/Gerente/13 - Listar Pedidos.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Candela\Documents\GitHub\RamosHnos\Documentos\Fichas MSI\Gerente\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -975,6 +980,43 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="es-AR" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2.4 Si no se desea realizar la búsqueda, se seelecciona la opción cancelar.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -1356,7 +1398,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1391,7 +1433,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1602,7 +1644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
